--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Porter_Thomas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Two_qubit_fidelity" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Multi_qubit_fidelity" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
@@ -85451,7 +85452,7 @@
   </sheetPr>
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -87860,4 +87861,1373 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.9999999999999991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0.9975284716977462</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.9638618187874645</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0.9886388454407095</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.9351702982086929</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.9980287268179067</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.9728927079794467</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.9999999999999991</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.9898317349735312</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.8446391903463212</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.9968024855988438</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.9559309917503636</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.9994706760021338</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.9976980298759844</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.9752778774485117</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.6797298850561199</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.996178515245844</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.9069514829111364</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.9994810045450907</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.9935039869289917</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.9793585488446043</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.4997808913296969</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.9924240007316799</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.8835650196835112</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.9985340266494855</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.9787215325688144</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9595926891965265</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.3309510964961775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.9898427624885022</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.8102793873831907</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.9984598640292467</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.9626687784873917</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0.9569784556804083</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.24057316209785204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.9789524027752247</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.7010148922266324</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.9965240211542609</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.926573427869234</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0.9233610115943023</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.15216240754849636</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.9667113270674282</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.5952018560085253</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.9951811776189005</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.9005494853333628</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0.9444920724405748</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.08689283163200259</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.9847098442774307</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.4285015225520468</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.9920057082791969</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.8661874063983098</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0.9282494870049126</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.055702880937660196</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.9641259888566899</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.3595366099450983</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.9877736275722708</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.817292399559428</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0.9436563314576419</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.03675471545489852</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.9662342440704986</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.23980954858793668</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.986461127199691</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.7219821447283694</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0.9437942349767552</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.01905986532157093</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.9559262716045202</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.19271425781866994</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.9856306450608191</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.660323788453426</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0.932750600935691</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.012178680423484928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.9602689606768</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.12780697154610726</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.9820735828226811</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.55432353372269</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0.9358548658681284</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.006342587645911301</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.9675735621164506</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.09012089206928639</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.9735773302212589</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.5061099111436245</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0.9378564886355464</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.004239419577894983</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.9639240011424405</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.06465502716798047</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.9810189881824312</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.41539892347103013</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0.947577661695712</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.0023039257039833495</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.9451615182325646</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04659471910179421</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.9795135843340975</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.3404802474106149</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0.9380232610630282</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.0012348000468564593</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.9600414049450341</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.031596485932728326</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.9682638940481276</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.26482609037987626</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0.9381841340426768</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.000584313636456046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.9637391505047291</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.02075789254381546</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.9845981615245205</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.20661586783339625</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0.9379540709207703</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.0003859948893576825</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.9646936240892926</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.014013221050685504</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.966818487963842</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.16838602122445884</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0.9332787530591284</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.00022350476698166467</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.9706278109850908</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.009470060404444761</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.9712022836852451</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.12047195409154157</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0.9456431931321851</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.000131351230917407</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.9743212240703274</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.006384432808249788</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.9705174357018557</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.08869614487003318</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0.9441062250730744</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7.474895266518346e-05</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9566798774864592</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.004101749378490087</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0.9487582662460302</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3.789046155974221e-05</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.9712621987827051</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.0027668462661666537</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.9249656829146858</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2.7412970444028004e-05</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.9513517469039859</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.0018655497037977533</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.933282441431512</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.861121578886998e-05</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.9647551627081123</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.0011137849128783509</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.9336898090504143</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.0119273068577818e-05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.9542376917583547</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.0007428216115198193</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0.9426443473547501</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.115755948796743e-05</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.9630758465041722</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00040489026530680916</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0.9444895264879868</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4.1321242158652866e-06</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.9508294525941141</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.0002441542661199678</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.9408895838427395</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2.1420345069005633e-06</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.9594518100013029</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00015726918759493668</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0.9291996948318093</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5.078482219863495e-06</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.9482578711806148</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.548426837186698e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.9590866750507065</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4.458532235532586e-06</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.9648647682165917</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.536343341494502e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.9366034227621188</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2.1502647877915326e-06</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.9670206113983673</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.3550338224417508e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.9505919810170279</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.7812273055186353e-06</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.9583038545147248</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.4045074089349634e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.9099030499953744</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7.844469463225438e-07</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.9586479369127683</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.167610419351914e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.9552456676086443</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.2040415531779482e-06</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.9579954807400195</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.2369687035348445e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0.9337243671909122</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1.0166942654508274e-07</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.9649651689795758</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.039775332109232e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0.9517759566033444</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4.9892300091114114e-06</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.9678765441729926</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.202078131289957e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0.9398401428286413</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3.404004836572968e-06</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.9631047556049804</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.885100070422563e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0.946190174891669</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.3233895622277472e-06</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.9617277298127936</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.321388599904069e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0.9347172999646729</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2.582298725781132e-07</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.9673216096637237</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.8666808434095752e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0.9402610767692726</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.8618509288570674e-07</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.9565116473132251</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.9491412147595098e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0.9413203493723766</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>8.027484336539393e-08</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.9689006658976205</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.3697626422234069e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0.9363302582951751</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.0912883757892506e-06</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.9544088866841088</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.872141896653974e-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0.9251761184383428</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.277790491093836e-06</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.956241726707407</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.5711523110528523e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0.9480978453950172</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>8.450937189286067e-07</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.9625595216463121</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.895788350463419e-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0.9318701395874858</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5.273613983788518e-07</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.9478193435603651</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.326773890466455e-07</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Porter_Thomas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Two_qubit_fidelity" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Multi_qubit_fidelity" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Two_qubit_fidelity_qr" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
@@ -87871,7 +87872,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -89230,4 +89231,626 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="26.36328125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1.000000000000001</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.999999290915343</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.9999999743143172</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1.0000000000000013</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.9999999658987833</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.9999997903604043</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0.9999999999999493</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.9998169594755374</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0.9999999999917378</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.9994065768094089</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0.9999999998482394</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.9994928953257465</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0.9999999985595687</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.9989415365157558</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0.999999980763129</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.9985053377069114</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0.9999999043783523</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.9979798208448912</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0.999999389523212</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.9973744596850095</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0.9999981072081476</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.9961477583016676</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0.9999895615189962</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.9957750716636464</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0.9999842251110351</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.995866529223471</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0.9999479723079016</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.9919711296210081</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0.9999007828345382</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.9943580450641126</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0.9998630083926582</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.9898790855290649</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0.9996821138171678</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.9920125516720569</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0.9995936000984884</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.9915725561138936</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.9995296440888338</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.9836141818651124</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.9989229427229451</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.9908075109930113</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.9993162758845977</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.9868741559321801</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0.9986935531120037</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.985416406761039</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0.9984524403223033</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.9879336631288052</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.9972358043083257</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.9878699318631081</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0.9977938678843631</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.9856414401299113</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.9969300953266369</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.9830609581608041</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.9972807257180839</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.9832845915769173</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.9966674212484908</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.9859715426232848</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.9953752306929141</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.9808587754592127</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.9954711998908878</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.9810847941371186</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0.9959609672297567</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0.9844240234078806</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>0.9946782808311575</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0.9856505950843946</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>0.993474760600469</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0.9876413486448731</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>0.9943355791816457</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0.9803659349751512</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0.9913087686581581</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0.9858408142236056</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0.9933239447545619</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0.9841016981079742</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>0.9902258130646006</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0.9831507882661265</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>0.9919740122106124</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0.9831912916297157</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0.9919091758884668</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0.9806467599638503</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>0.9923611159221776</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0.9798722784311096</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>0.9917694910118453</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0.978621743064091</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14020" windowWidth="21820" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="Porter_Thomas" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Two_qubit_fidelity" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Multi_qubit_fidelity" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Two_qubit_fidelity_qr" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Two_qubit_fidelity_ort" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Multi_qubit_fidelity_ort" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
@@ -430,8 +431,8 @@
   </sheetPr>
   <dimension ref="A1:C5000"/>
   <sheetViews>
-    <sheetView topLeftCell="A988" workbookViewId="0">
-      <selection activeCell="C4998" sqref="C4998:C4999"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4997" sqref="M4997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -85454,7 +85455,7 @@
   <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -89239,10 +89240,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -89253,600 +89254,5969 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>1.0000000000000002</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1.0000000000000002</t>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>1.0000000000000002</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.0000000000000002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CZ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1.0000000000000007</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>1.0000000000000002</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.0000000000000002</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.0000000000000002</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2q-ort 40</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2q 40</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2q-ort 60</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2q 60</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1.0000000000000009</t>
+          <t>0.9999999999999999</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.9999999999999999</t>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1.000000000000001</t>
+          <t>1.0000000000000002</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9999999999999998</t>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.9999456190322323</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.999999290915343</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.9999998503949693</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1.0000000000000004</t>
+          <t>1.0000000000000002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9999999743143172</t>
+          <t>0.9999855659338827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.9999999594542612</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1.0000000000000013</t>
+          <t>1.0000000000000004</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.9999999658987833</t>
+          <t>0.9999340120664362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.9999494783859475</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.999988081156163</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>1.0000000000000002</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.9999997903604043</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.9999958419245483</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>0.9999999999999493</t>
+          <t>0.999999999998065</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.9998169594755374</t>
+          <t>0.9999282716907842</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.9999999999997184</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.9998928084672086</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0.9999999999917378</t>
+          <t>0.9999999998035329</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.9994065768094089</t>
+          <t>0.9996593450055867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.9999999998857209</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.9998310664110075</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0.9999999998482394</t>
+          <t>0.9999999985637225</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.9994928953257465</t>
+          <t>0.9991654160801533</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.9999999923618723</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.9996357364473908</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>0.9999999985595687</t>
+          <t>0.9999999351045551</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.9989415365157558</t>
+          <t>0.9978300089731333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.9999999684171668</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.9990425694632205</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0.999999980763129</t>
+          <t>0.9999999309246836</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.9985053377069114</t>
+          <t>0.9983657144614354</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.9999999311109026</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.998595168678566</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0.9999999043783523</t>
+          <t>0.9999992211232656</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.9979798208448912</t>
+          <t>0.9973216420160557</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.9999997003694169</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.9981197061124223</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0.999999389523212</t>
+          <t>0.9999972034961664</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.9973744596850095</t>
+          <t>0.9980208559608726</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.999999108274248</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.9966093612280231</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0.9999981072081476</t>
+          <t>0.9999973267099012</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.9961477583016676</t>
+          <t>0.9975724337649255</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.9999960720013708</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.997181802978989</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0.9999895615189962</t>
+          <t>0.9999899720458799</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.9957750716636464</t>
+          <t>0.9953484901986148</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.9999886300756335</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.9961951672995952</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0.9999842251110351</t>
+          <t>0.9999803552388208</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.995866529223471</t>
+          <t>0.9953010862991636</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.9999628835071577</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.9935005934789896</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>0.9999479723079016</t>
+          <t>0.9999592891597958</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.9919711296210081</t>
+          <t>0.9944335485332758</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.9999113080103801</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.9943029595252579</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0.9999007828345382</t>
+          <t>0.9999287425966047</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.9943580450641126</t>
+          <t>0.9924114409226631</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.9998743537115327</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.9926562674952762</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0.9998630083926582</t>
+          <t>0.9998771830787836</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.9898790855290649</t>
+          <t>0.9920111484677421</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.9998069545072905</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.9930486082366525</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>0.9996821138171678</t>
+          <t>0.9997248441610319</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.9920125516720569</t>
+          <t>0.9908824754489539</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9996050533127677</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.9910151472883332</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>0.9995936000984884</t>
+          <t>0.9995471388474652</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.9915725561138936</t>
+          <t>0.9907449003511507</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.9996134596141044</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.9908661254143164</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0.9995296440888338</t>
+          <t>0.9992850720238623</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.9836141818651124</t>
+          <t>0.9896543831278066</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.9993687924622152</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.9893192908471518</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0.9989229427229451</t>
+          <t>0.9990672156280741</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.9908075109930113</t>
+          <t>0.9881549426058046</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.9990595559917695</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.9890232636085565</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0.9993162758845977</t>
+          <t>0.9992411985570749</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.9868741559321801</t>
+          <t>0.9845387230792542</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.9988149353285259</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.99056722649169</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0.9986935531120037</t>
+          <t>0.9991358272822768</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.985416406761039</t>
+          <t>0.9875124997084554</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.9984029832865291</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.9874531625530087</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>0.9984524403223033</t>
+          <t>0.9985080473494983</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.9879336631288052</t>
+          <t>0.9854105219313919</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.997789934882217</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.9889109803874376</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0.9972358043083257</t>
+          <t>0.9982778478090408</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.9878699318631081</t>
+          <t>0.9851480599857185</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.9969442145538386</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.9829395812406899</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0.9977938678843631</t>
+          <t>0.9972193320270373</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.9856414401299113</t>
+          <t>0.982103713709099</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.996636884255699</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.986179210696207</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0.9969300953266369</t>
+          <t>0.9978220175666077</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0.9830609581608041</t>
+          <t>0.9844626228233414</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.9971311528242067</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.9840463366927128</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0.9972807257180839</t>
+          <t>0.9971203780421893</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0.9832845915769173</t>
+          <t>0.9843037701196746</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.9962193806853087</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.9888506588673389</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>0.9966674212484908</t>
+          <t>0.9963870457571741</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.9859715426232848</t>
+          <t>0.9834969599617772</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.9961973422083807</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.9869628124960302</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0.9953752306929141</t>
+          <t>0.9964746526985885</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.9808587754592127</t>
+          <t>0.9810978293889486</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.9941850607877443</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.983408964598111</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0.9954711998908878</t>
+          <t>0.9947701495548933</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.9810847941371186</t>
+          <t>0.9887042529885838</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.995583914532475</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.9850970276939235</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0.9959609672297567</t>
+          <t>0.9950508274077257</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0.9844240234078806</t>
+          <t>0.9804502992831391</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.9934587101290763</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.9803623075503709</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0.9946782808311575</t>
+          <t>0.9951613341480587</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.9856505950843946</t>
+          <t>0.9784100663222545</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.993089164302323</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.9822936131280311</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0.993474760600469</t>
+          <t>0.9940769564586475</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.9876413486448731</t>
+          <t>0.9842136691510659</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.9938123309972079</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.9819286852536975</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0.9943355791816457</t>
+          <t>0.9949154609010684</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0.9803659349751512</t>
+          <t>0.9834377185303357</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.991061717197252</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.9792741015420261</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0.9913087686581581</t>
+          <t>0.994259828372445</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.9858408142236056</t>
+          <t>0.9862061991897568</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.9928849170562647</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.9806239642535564</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0.9933239447545619</t>
+          <t>0.9942827651579318</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.9841016981079742</t>
+          <t>0.9799532836589976</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.9927528299470866</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.9817387478502377</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0.9902258130646006</t>
+          <t>0.9938361234601667</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.9831507882661265</t>
+          <t>0.9857798388761214</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.9920197756970432</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.9776239524027093</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>0.9919740122106124</t>
+          <t>0.9927068547728914</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.9831912916297157</t>
+          <t>0.9813813468294745</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.9901381553309077</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.9828492042490343</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>0.9919091758884668</t>
+          <t>0.9942633143114971</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.9806467599638503</t>
+          <t>0.9820013421813496</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.9903898880418729</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.9824134335758935</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>0.9923611159221776</t>
+          <t>0.9924511142352661</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.9798722784311096</t>
+          <t>0.9786820172568688</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.9904609240306341</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.980028749443515</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0.9917694910118453</t>
+          <t>0.9921164576417933</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.978621743064091</t>
+          <t>0.985140046561863</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.9910586258769758</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.9786969403961016</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>0.9890396585868292</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0.972933928386791</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.9910301861945331</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.9780209867876266</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>0.9889959215983036</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0.9814109826461983</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.9902513891043827</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.9813656606071375</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>0.990771816667184</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0.9826292286893876</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0.9868572403185836</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.980588744185287</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>0.9897743505889813</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0.984071777967724</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.9918802126372379</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.9773530018567543</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0.9889435628976163</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.9803180745164572</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.9874860832890129</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.977702345445102</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>0.9897160096390701</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.9795417459677699</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.9897132440609978</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.9810377077706216</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>0.9889041049238332</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.9810074162495467</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.987419768692518</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.9714399090820889</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>0.9914339538512584</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.9763671659376346</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.9888297444276882</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.978839867087977</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>0.9903993479526532</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.9774422009187889</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.9882071562292294</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.9746290453873443</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>0.9911211168238799</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.9861891704453193</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.9887984164034155</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.982333488022523</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>0.9896650154111738</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.9811336576423751</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.9883470002740851</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.9767427343438702</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>0.989940381567677</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.9833322223538717</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.986998180478985</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.978857106964052</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>0.9875527619210991</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.9758943477258295</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.988334548845747</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.9743946795394406</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>0.9884822592716693</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.9825114563188245</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.9868105596520916</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.9783809739228551</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>0.9881421999791503</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0.9766608026486263</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.987317540671294</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.974772136033716</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>0.9906122220936192</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0.9825383496931156</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.9871021266874798</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.974586879646892</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>0.988343376237318</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0.9795775971852662</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.9884992499775058</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.973147816542239</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>0.9901295636452128</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0.9768796953444133</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.9861677901208957</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.9755193064485048</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>0.9894709990564139</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.9744425102455814</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.9899562080764847</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.9794138780677425</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>0.986666165566366</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0.9808547594272436</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.9868894527021866</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.9751127242904819</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>0.98585512114178</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0.9844466925238585</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.9878282800831363</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.9777024574626881</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>0.9880100460056735</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0.9758852554326142</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.9884626786519809</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.9772211990382073</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>0.9888346078718832</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0.978533081752973</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.9871374119083306</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.9739581865578366</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>0.9874195025985472</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0.9830955557643272</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.9857628787438303</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.9748895261424989</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>0.9876341062000726</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0.9804410162653998</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.9883654879767512</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.9773824358949905</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>0.985123661941052</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0.9813268577729284</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.9870630115845134</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.9772517507431638</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>0.9860933292477644</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0.9813234423133669</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.9860587993849516</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.9750042309503864</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>0.9900634691547421</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0.9760652340029724</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.9863773665885336</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.9712537023668707</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>0.9851146103699057</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0.9793454159137858</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.9852407239746465</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.9726115697057668</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>0.9864281108731072</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0.9806550619981002</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.9856102161328548</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.976843974762755</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>0.9868294945225796</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0.9817953626766537</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.9866433450549025</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.9744047426074217</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>0.9857280521159262</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0.9859148051362876</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.9850235408197634</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.9775565824905906</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>0.9870811955737828</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0.9778412750171926</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.9850315297291097</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.9791947759050994</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>0.9860635363676472</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0.9861230931575934</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.9872395142453131</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.974261333966592</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0.9875863976389688</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0.9797047621059731</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.9839252546636373</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.9786776089752091</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>0.9891516064607083</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0.9765976642017965</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.9841346202995876</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.9761706553932088</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>0.988563829675468</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0.9793627586370426</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.9835507115100364</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.976573019714773</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>0.9864788426322765</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0.9780226798478158</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.9852038280270975</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.9686491783615336</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>0.9851702749251782</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0.9797522889779827</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.9871377365814331</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.9768617625021326</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>0.987933757555065</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0.9832301369965574</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.9875930892749293</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.9721568533940779</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>0.9889243630286121</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0.9695329736619095</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.9863347093743293</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.9783811518821885</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>0.987304434797641</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0.9762531973734303</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0.9854789744809201</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.9751109259531202</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>0.9867388285464076</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0.9788477960034548</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0.9857680361422877</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.9772338574116609</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>0.9878621117222368</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0.977492480004068</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0.9875259607313667</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.9747038491995629</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>0.9883738917247501</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0.9719341312318507</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0.9863900743869294</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.977081034963369</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>0.9865403570939616</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0.9778090894824469</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.9879240569307592</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.9738818151360349</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>0.9862143933010535</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0.9733565432956958</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0.9893745657878251</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.9705111144345631</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>0.9874457155467669</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0.9753999177139286</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0.9888266374398615</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.969204155344578</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>0.9840458800879572</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0.9740666020171453</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0.9873878098704746</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.9782964521205186</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0.9881662928416902</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0.9718767373338716</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0.9888165910323359</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.9752052884707116</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>0.985323925481986</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0.9802434782632602</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0.9859426290085125</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.9711406850841099</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0.9887052810631962</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0.971784727235286</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0.9850148369381714</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.973125971267966</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0.9867358196862072</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0.9787685899699038</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0.9894823523523605</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.9665622834600934</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0.9900179857992785</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0.973531566815216</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0.9880995899075217</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.9755593654038208</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0.9901068472654552</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0.9722947627215763</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0.9857137691311046</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.9677902210197852</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0.9881923537383484</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0.976982960744698</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0.9876048677719631</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.9762320113907018</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0.9918241414040486</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0.9795774086841192</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0.9865672785245518</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.9776695286172018</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0.9901732562220997</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0.9729200093060353</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0.985306947482586</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.9736828648871078</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0.9906806956670929</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0.9797620212728118</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0.9868975574441794</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.9748069809912294</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0.9918338917603381</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0.9791933006020541</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0.9868366717928434</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.9776240018687751</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0.9880149140753226</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0.9815716140576799</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0.9855884753685619</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.9769582648607058</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>0.9854993391527018</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0.9846668637287179</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0.9885971380192734</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.9814873739162402</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0.9902419348807497</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0.9778720632454344</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0.9841708666615285</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.9711017284752006</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>0.9876569636614191</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0.9769605640138755</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0.9841791820743644</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.9809562240709934</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>0.9869396358518253</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0.9788990886964578</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0.9863603027502621</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.9723638234501222</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>0.9906896162669934</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0.9820460974890579</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0.9862162074815141</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.9758225940124006</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>0.9856821825153169</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0.9765092745802528</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0.9872556582273546</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.9749799878866257</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>0.9853161152577731</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0.9758627782048077</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0.9882191609083606</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.9760783703943525</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>0.9839633139863304</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0.9788766152750558</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0.9861781741339263</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.9755606993155206</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>0.9867585222664514</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0.9789388064316988</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0.9866193585500515</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.9767169623850723</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>0.9888176453817807</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0.9819219371599635</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0.9853868738619299</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.9683199218855527</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>0.985656438619479</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0.9775221706297641</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0.9864574271911383</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.9740349935940804</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>0.9880009358618104</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0.9768573757740737</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0.9855552082129361</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.9746403297336634</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>0.9889479169148427</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0.9771409704930403</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0.9886978380094695</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.975622642396443</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>0.9871271670074366</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0.9812331071183896</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0.9872243548389444</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.976869070465617</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>0.9884475563604265</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0.9778869930337504</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0.9879140437346273</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.9813945578404751</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>0.9896704287356759</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0.9727672839110795</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0.9861562147610323</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.9761974523777704</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>0.9895316644287188</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0.9741202042043964</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0.987722419290163</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.9763652512122357</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>0.9888705540756856</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0.9712746877964457</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0.9868469146969907</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.9727993508728766</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>0.9855581693274958</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0.9824682566349414</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0.9899913509223732</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.9715943563741057</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>0.9875563062531085</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0.9728739551628128</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0.9873529352716036</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.9773282992502492</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>0.9884846746622334</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0.9722375885669307</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0.988058387815104</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.9749144602590344</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>0.9890237191809941</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0.9817853848640768</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0.9859376610211681</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.9690160983722877</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>0.9873731485521294</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0.9777378917882423</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0.9889611474615297</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.9782220614667317</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>0.9893083213252992</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0.9822910161516865</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0.9859681317992975</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.9696075554880597</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>0.9873187415361216</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0.9779254526636815</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0.9875229232641992</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.9736894988480306</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>0.9903652313449501</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0.9826198732280534</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0.9892640422206066</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.9703977412701184</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>0.9881830505363209</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0.9809700227727863</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0.9840249472987926</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.9709004571994233</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>0.9884313760954695</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0.973805908697392</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0.9871643266918388</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.9729460491910729</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>0.9908633252327655</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0.9784836606459233</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0.9895414659581367</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.9748488156935873</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>0.9870936866931015</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0.9789695804215557</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0.987873080283765</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.9779092377433948</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>0.9908674375304881</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0.9754086763522593</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0.9902671982674616</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.9787451849144524</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>0.9882740411868908</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0.9797860986885661</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0.9881945616686367</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.9778337765458042</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>0.9884638358232383</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0.9737612138092293</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0.9895930043926346</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.971658281132081</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>0.9888295720507856</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0.9692038840963062</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0.986547259970412</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.9763008567198238</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>0.9896664121362178</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0.9807393019564483</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0.9890375448756891</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.975171012638365</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>0.9886481580654837</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0.9755103765848954</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0.9899468995316149</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.9745659949462087</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>0.9881581198230647</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0.9823296856754797</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0.9883004604805627</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.9769794363318315</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>0.9887351306579544</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0.9775088577902796</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0.9902797070286068</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.9793465645159901</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>0.9894617790661622</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0.9742155563590578</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0.9897510202197782</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.973329188110233</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>1.0000000000000022</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.9999999999999999</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.9958749185915718</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.9753505300522222</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.9924158033574757</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.9253656996197333</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9967408502237071</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.9919036303865628</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0.9998375471131155</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.9954366526083789</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.9898763799089246</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.8359124596342378</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.9999999999999996</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9982739393142617</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.9642762819734338</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.9999999999999998</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.9994468419594149</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.9950582208660805</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0.9983686890909066</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.9873224413728484</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.973484757701511</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.7097673634794114</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.994485760129398</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.9429520285456789</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.9999999999999997</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.0000000000000013</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.9996052142878227</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.9905034569760308</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0.9903992020816489</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.938361898233196</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.9726491310290851</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.5526013298653489</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.9997205409743379</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.9981754198145995</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9927325717622212</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.8782766565762969</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1.0000000000000009</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.9993460127762348</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.9789639484419607</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0.9853333239308463</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.8614324326371913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.9536746854198768</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.3862323069828058</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.9991707312407299</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.9842175617656023</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9910570565062271</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.7605891932785782</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1.0000000000000002</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1.0000000000000004</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.9982156457375942</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.9713998055901676</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>CX</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>0.9813804216056862</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.7291348712344794</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.9645291548073495</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26319450384008447</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.9960980493006345</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.9506252710819649</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9890486987939815</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.6809715252238282</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.9999802426342437</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.9999879260549165</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.9979220088999399</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.937250421331504</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>0.9756842713650841</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.590168287549561</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.941684595094447</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16475118715011727</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.9951758608136693</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.8724555982734586</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9773111521945471</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.5489414954360482</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.9997320743131579</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.9991359379733779</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.9943060487882354</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.9150557328113044</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2q-ort 10</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>mq-ort 10</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2q 10</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>mq 10</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2q-ort 20</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>mq-ort 20</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>2q 20</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>mq 20</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>2q-ort 50</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>mq-ort 50</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2q 50</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>mq 50</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0.9755079991892204</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.4465777539648603</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.9649217729300243</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09830449734727008</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.9855526668092232</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.8038786548336109</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9714339005937563</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.3989963149032213</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.9985651057435095</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.9978813622815811</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.9891403345139067</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.8455796182424277</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0.9776920860929383</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.3606301852472255</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.9506925238124068</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06317216524056732</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.9835655285530196</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.6878145808337524</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.969644323734254</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.30062494403364426</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.996388700083373</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.9903850440683467</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.9858271173042215</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.8004528050294971</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>0.9728157421091069</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.2741092371991457</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.9698501193682357</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03570024541988501</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.9778194580776768</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.5861963147276175</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9565429277000989</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.20649418889342422</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0.9936597686703242</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.976450149707443</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.9935517377582858</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.7134245489232651</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>0.9704226321464169</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.20352807289663197</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.9430485555685414</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01832802472545487</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.9728328808998888</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.5003916246136575</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9624530436464489</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.14312003499880074</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.9927105967152658</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.9455494298366243</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.971006923906531</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.6154829805841895</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0.9583005461936235</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.1578512683959664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.9503015007424322</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01078270328200928</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.970365339260933</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.4076336991102977</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9588345661213807</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.10707694426551632</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.9910473547349136</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.9048965920272336</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.9842540393433737</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.5386882133455452</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0.9583021844927089</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.11456049909608408</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.9281627337863104</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00675057054069546</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.9715077571184652</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.31922897444154147</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.947018019357627</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.06555487716695475</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.9866051660063593</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.8444738435863647</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.9671005693155871</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.44716752953433897</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>0.9687968246168669</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.0855949325193239</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.927783949539467</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0036425267317533707</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0.9710284621235173</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.25624267985582494</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9501227514513065</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>0.04157801651380879</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.9844212240782629</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.7706033172699654</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.9737502691664291</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.35995734915515026</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>0.9559367937201664</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.05775912562054654</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.9326934421971719</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.001861487949794901</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.9739674042601665</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.21106257760982483</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9580135074173126</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.02915400981597538</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.981906885555642</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.6772088581734871</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.9662334497025024</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.2959077543598092</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>0.9664652466648377</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.040797271515026455</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.9301181875136061</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.0010564585080022242</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0.9759444576458643</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.1607637897992733</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9581467863223014</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.01758980821503669</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.9808096840325757</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.5754126797703336</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.9753900428293946</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.24573010434968864</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0.9642018054996315</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.02600620371681877</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.9439871070030121</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.0004674025344218962</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.9711351379721165</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.12675322330133337</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9474665368865165</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.012802652386274612</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.9847062954709015</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.49906523892390064</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.9638905662713945</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0.19955512785358687</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>0.9689008125319784</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.01857380680944678</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.9370327393267639</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00019449851369151669</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0.9711370966312972</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.09567918122788492</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9457878056516145</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.007728937031056123</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.9800037042108475</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.4421269706593242</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.9717770865196451</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0.1578515600887119</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0.9661859273349098</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.012154847744441775</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.953791695023187</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.416389124420081e-05</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.972508845293261</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.07333819709831609</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9466174130262364</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.005195388950347153</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.9829477581510311</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.37231085112653106</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.9639316405654316</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0.12250127627140875</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>0.9658030278861411</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.008727766378981901</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.9467377149654788</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.8311668505605927e-05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.9662107222940743</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.056496163954283224</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9482339796758559</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.0031407128555554407</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.978246408623387</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.3077111457595082</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.9713340218024877</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.097031532108567</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>0.9675789715062414</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.006210191049067898</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.9351238480934481</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.3980384768350635e-05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.9701310578158456</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.044429344818499535</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.9437160157266666</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.0017350234972185262</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.9789974978261745</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.25941311832688724</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.9627437217737118</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0.07870701140037875</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0.9723909782747225</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.0048272136388016655</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.9520552209181555</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.5544048750011717e-05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.9700698897769118</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.036095688863692736</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9543264387707304</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.0009540414306270652</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.9782685554891873</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.2156897256762437</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.972877460724434</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0.05983493408748732</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0.958406594934728</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.0034644657432001814</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.927572156566103</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.5719878243119528e-05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.9732531375107614</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.028621173956017012</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9445003825739616</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.0005556046650852257</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.9754305302239286</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.17729916936256834</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.9685597416761863</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0.04532057113376698</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>0.9719262392417829</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.002644503633161694</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.9467607309655081</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.202214207561476e-06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0.9685941240778677</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.02251262707472797</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9443453468689594</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.00031086017263269486</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.9822010846985144</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.14137797724729312</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.965514652135318</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0.032056203349486785</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0.9604814310096987</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.0017809306261015623</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.9392169496177093</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.740318556038673e-06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0.9709007294165604</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.017669125645696376</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9647611494708006</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.0002145616611719971</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.973477825798394</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.11271442375185427</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.9696231682077386</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.023977478617866182</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>0.9684537984245318</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.0012728827667249528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.9350850230294</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.1585335997365645e-06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.9710628594406637</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.013530121650178703</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9499235611362102</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.0001019674699931663</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.9807145262698572</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.09030780480903636</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0.9643974094915567</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0.017376872557615868</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0.9658931241006858</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.0008197778799619134</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.9478098081908146</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.457661020228355e-07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.9720798850507522</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.010506323542069177</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.9556499649733153</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>6.678286207468753e-05</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.9784109527221033</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.07449079436637741</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.9650118859214227</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.012425838216498527</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>0.9699292370065411</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.00061241184759423</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0.9497880010577968</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.6999907688036157e-06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0.9670439766156625</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.008171842861362456</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.9452858542853173</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5.5461956000700535e-05</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0.9748114462736457</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.05897242478940403</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0.9657302877324052</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0.008748249255494951</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>0.9671569163409354</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.0004485045250459585</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0.9368168745550461</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.3500567262268305e-06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0.9790983001678836</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.006638680805177988</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.9514494037495749</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2.321176393775696e-05</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.98126660797179</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.046114840935236844</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0.9582208648823493</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0.006525931280355828</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>0.9692959345290165</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.00034158697218295746</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.9405845481657523</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.1913035133655384e-06</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0.9684195848814136</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.005300765930808849</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9642313146550848</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1.853580199066887e-05</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.9752060236305693</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.036798019026946724</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.9613768234596096</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.004515498553849563</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0.9647174496598376</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.000253748428122826</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.9333799966088876</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.125412792321646e-07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0.9757808215562525</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.004170252511272998</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9447978765647413</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>8.52268701000288e-06</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>0.9837942304984167</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>0.0275469654111715</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0.9597055769054387</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.0032996473852825673</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0.9638073978148811</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0.00018808639247514384</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.9425190749288319</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.1133198447598264e-06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.9678100491318852</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.0033767025674287634</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9588696958193248</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2.685218381698424e-06</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0.9796607526673493</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0.022401563331018233</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0.9686889440415993</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0.002403824778649475</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>0.9565779167114692</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0.00012656111397195232</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.9414928985998989</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.337520094583029e-07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.9670559203093145</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.002611859521968665</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9488166755792903</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>5.516726672807481e-07</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>0.9796813021804496</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.017526847713838833</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.9627078623913667</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.0018112626442712896</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0.9632930470848864</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>8.734627446652359e-05</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.9464026543493048</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.2779385147176526e-07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.9679239246804486</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.0020499866835420586</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9620013391464461</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.980655123921208e-07</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.9763492997413885</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.013858019541517642</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.9599942848890869</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0.0013053514442429573</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>0.9605211652830065</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6.435940586109756e-05</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.9416297686359124</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.427947228125645e-07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.9635359156796045</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.0016177174352694232</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9473740646430723</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1.3419884007226112e-07</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>0.9782063784483044</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>0.010868359749807897</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.9630965500015437</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0.0009080856942944967</t>
         </is>
       </c>
     </row>
